--- a/requirejs/doc/模板——教学大纲.xlsx
+++ b/requirejs/doc/模板——教学大纲.xlsx
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>编号</t>
   </si>
@@ -112,91 +112,158 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>用requirejs来进行模块化开发，以及如何用r.js来打包压缩。怎么避免手动打包动作，在部署的时候自动打包成jar包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs初步使用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD规范</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍AMD规范</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs定义模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用requirejs的最简单配置来加载模块，初步认识requirejs加载文件的过程</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义最基本的模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONP服务依赖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最简单配置的requirejs模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>介绍课程目标和学习内容</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>通过详细的讲解，让同学在不会canvas的情况下，也能画出时钟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>几何知识</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cos,sin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>角度和弧度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍什么时候cos、sin，我们需要它来作什么</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解角度和弧度的关系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出静态时钟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出时钟的外圆</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出时钟的小时数字和秒针对应的点</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出时针</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出分针</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出秒针</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出时钟的整体外观</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出时针、分针、秒针</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出动态时钟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出时钟最外层的圆</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化时针的显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时钟每秒跳动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时钟的动画效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>时钟自适应大小</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过本课程，我们学习和理解了canvas的基础运用，可以入门canvas，同时画出自己想要的任何时钟样式</t>
+    <t>怎么使用requirejs来处理jsonp请求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义简单的键值对和存在依赖的函数模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过本课程的学习，你将学到如何用requirejs来进行模块化开发，以及如何用r.js来打包压缩。怎么避免手动打包动作，在部署的时候自动打包成jar包。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过baseUrl和paths来查找模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置不支持AMD的库和插件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置模块路径</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>为那些没有使用define()来声明依赖关系、设置模块的"浏览器全局变量注入"型脚本做依赖和导出配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他配置项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs其他常用的配置项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs插件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载依赖的html文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用text.js插件来加载html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载依赖的css文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用css.js插件来加载css</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>i18n多语言处理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用i18n.js来处理多语言的本地化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别介绍r.js的3种打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.js的3种命令行打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs打包压缩</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个配置文件来打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个最简单的配置文件来打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么打包多个模块，怎么解决打包依赖问题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合maven自动打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需其他构建工具，用npm命令来执行打包</t>
+  </si>
+  <si>
+    <t>maven插件+npm命令实现自动打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven插件+npm实现自动打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么打包多个模块，怎么解决打包依赖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm脚本命令打包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -319,27 +386,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -724,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="34.5">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -733,277 +800,383 @@
       </c>
       <c r="C2" s="4">
         <f>SUM(E2)</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="B3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15">
+        <f>SUM(E3:E4)</f>
+        <v>23</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42" customHeight="1">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15">
+        <f>SUM(E5:E6)</f>
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16">
+        <f>SUM(E7:E9)</f>
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="66" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36" customHeight="1">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="15">
+        <f>SUM(E10:E12)</f>
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="13">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="13">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" customHeight="1">
+      <c r="A13" s="15">
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="15">
+        <f>SUM(E13:E15)</f>
+        <v>24</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="13">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="13">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="39" customHeight="1">
+      <c r="A16" s="15">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15">
+        <f>SUM(E16:E17)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="13">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.5">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17">
-        <f>SUM(E3:E4)</f>
+      <c r="F17" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="17">
+      <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="17">
-        <f>SUM(E5:E9)</f>
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="69.75" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4">
-        <v>15</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="53.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A10" s="17">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="19">
-        <f>SUM(E10:E12)</f>
-        <v>11</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="51.75">
-      <c r="A13" s="4">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="48.75" customHeight="1">
-      <c r="A14" s="16" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="9">
-        <f>SUM(E2:E13)</f>
-        <v>54</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="9">
+        <f>SUM(E2:E18)</f>
+        <v>120</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="20">
+    <mergeCell ref="A20:F26"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A15:F21"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/requirejs/doc/模板——教学大纲.xlsx
+++ b/requirejs/doc/模板——教学大纲.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>编号</t>
   </si>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>requirejs初步使用</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>AMD规范</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -128,26 +124,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>requirejs定义模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>使用requirejs的最简单配置来加载模块，初步认识requirejs加载文件的过程</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>定义最基本的模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSONP服务依赖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>最简单配置的requirejs模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>介绍课程目标和学习内容</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -156,10 +136,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>定义简单的键值对和存在依赖的函数模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通过本课程的学习，你将学到如何用requirejs来进行模块化开发，以及如何用r.js来打包压缩。怎么避免手动打包动作，在部署的时候自动打包成jar包。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -176,10 +152,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>为那些没有使用define()来声明依赖关系、设置模块的"浏览器全局变量注入"型脚本做依赖和导出配置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>其他配置项</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -255,15 +227,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>requirejs配置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>怎么打包多个模块，怎么解决打包依赖</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>npm脚本命令打包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本使用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义简单的键值对和存在依赖的函数模块，熟悉模块化开发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONP服务</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +371,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,16 +386,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -800,268 +788,254 @@
       </c>
       <c r="C2" s="4">
         <f>SUM(E2)</f>
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="17">
+        <f>SUM(E3:E9)</f>
+        <v>62</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="15">
-        <f>SUM(E3:E4)</f>
-        <v>23</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="14">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="14">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="14">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E7" s="14">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42" customHeight="1">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15">
-        <f>SUM(E5:E6)</f>
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A7" s="15">
-        <v>4</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="16">
-        <f>SUM(E7:E9)</f>
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11">
+    </row>
+    <row r="10" spans="1:6" ht="36" customHeight="1">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="66" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="36" customHeight="1">
-      <c r="A10" s="15">
-        <v>5</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17">
         <f>SUM(E10:E12)</f>
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" customHeight="1">
+      <c r="A13" s="17">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="13">
-        <v>7</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="13">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36" customHeight="1">
-      <c r="A13" s="15">
-        <v>6</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="C13" s="17">
         <f>SUM(E13:E15)</f>
         <v>24</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12">
         <v>5</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>36</v>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="12">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="12">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="39" customHeight="1">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="13">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="39" customHeight="1">
-      <c r="A16" s="15">
-        <v>7</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="17">
         <f>SUM(E16:E17)</f>
         <v>15</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="12">
         <v>5</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>43</v>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12">
         <v>10</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>44</v>
+      <c r="F17" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="79.5" customHeight="1">
@@ -1080,8 +1054,8 @@
       <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>22</v>
+      <c r="F18" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48.75" customHeight="1">
@@ -1093,70 +1067,73 @@
       <c r="D19" s="19"/>
       <c r="E19" s="9">
         <f>SUM(E2:E18)</f>
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="14">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B3:B9"/>
     <mergeCell ref="A20:F26"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
@@ -1167,16 +1144,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/requirejs/doc/模板——教学大纲.xlsx
+++ b/requirejs/doc/模板——教学大纲.xlsx
@@ -188,14 +188,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>分别介绍r.js的3种打包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>r.js的3种命令行打包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>requirejs打包压缩</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -227,10 +219,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>怎么打包多个模块，怎么解决打包依赖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>npm脚本命令打包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -252,6 +240,18 @@
   </si>
   <si>
     <t>JSONP服务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包多个模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包requirejs插件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用了text/css插件怎么打包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -386,13 +386,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -801,13 +801,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="16">
         <f>SUM(E3:E9)</f>
         <v>62</v>
       </c>
@@ -822,11 +822,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="14">
         <v>15</v>
@@ -836,9 +836,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -850,23 +850,23 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="14">
         <v>8</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
@@ -878,9 +878,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
@@ -892,11 +892,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4">
         <v>10</v>
@@ -906,13 +906,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f>SUM(E10:E12)</f>
         <v>22</v>
       </c>
@@ -927,9 +927,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
@@ -941,9 +941,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
@@ -955,87 +955,87 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="36" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>6</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="16">
+        <f>SUM(E13:E15)</f>
         <v>31</v>
-      </c>
-      <c r="C13" s="17">
-        <f>SUM(E13:E15)</f>
-        <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12">
+        <v>8</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="12">
+    </row>
+    <row r="15" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="12">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="39" customHeight="1">
+      <c r="A16" s="16">
         <v>7</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="12">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="39" customHeight="1">
-      <c r="A16" s="17">
-        <v>7</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f>SUM(E16:E17)</f>
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="12">
         <v>5</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="11" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E17" s="12">
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="79.5" customHeight="1">
@@ -1067,67 +1067,67 @@
       <c r="D19" s="19"/>
       <c r="E19" s="9">
         <f>SUM(E2:E18)</f>
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
